--- a/playbackLists.xlsx
+++ b/playbackLists.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28403"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janc/Dropbox (Personal)/playback/git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janc/Dropbox (Personal)/playback/tuning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="242">
   <si>
     <t>stimName</t>
   </si>
@@ -723,6 +723,36 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>ipiTune_R71G01-Dsx-csChrimson_noatr_NoLight_male</t>
+  </si>
+  <si>
+    <t>ipiTune_R71G01-Dsx-csChrimson_noatr_NoLight_female</t>
+  </si>
+  <si>
+    <t>OPTOpulses_R42B01-Dsx-csChrimson_atr_male</t>
+  </si>
+  <si>
+    <t>OPTOpulses_R42B01-Dsx-csChrimson_noatr_male</t>
+  </si>
+  <si>
+    <t>OPTOpulses_R42B01-Dsx-csChrimson_atr_female</t>
+  </si>
+  <si>
+    <t>OPTOpulses_R42B01-Dsx-csChrimson_noatr_female</t>
+  </si>
+  <si>
+    <t>IPI36_soft_male</t>
+  </si>
+  <si>
+    <t>ppf2a_male</t>
+  </si>
+  <si>
+    <t>ppf2b_male</t>
+  </si>
+  <si>
+    <t>light intensity [au]</t>
   </si>
 </sst>
 </file>
@@ -797,11 +827,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1087,11 +1118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F181" sqref="F181:F209"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C212" sqref="C212:C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5106,6 +5137,183 @@
         <v>231</v>
       </c>
     </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D210" t="s">
+        <v>228</v>
+      </c>
+      <c r="E210" t="s">
+        <v>230</v>
+      </c>
+      <c r="F210" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D211" t="s">
+        <v>228</v>
+      </c>
+      <c r="E211" t="s">
+        <v>230</v>
+      </c>
+      <c r="F211" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B212" t="s">
+        <v>241</v>
+      </c>
+      <c r="C212" s="1">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>228</v>
+      </c>
+      <c r="E212" t="s">
+        <v>230</v>
+      </c>
+      <c r="F212" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B213" t="s">
+        <v>241</v>
+      </c>
+      <c r="C213" s="1">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>228</v>
+      </c>
+      <c r="E213" t="s">
+        <v>230</v>
+      </c>
+      <c r="F213" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B214" t="s">
+        <v>241</v>
+      </c>
+      <c r="C214" s="1">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>228</v>
+      </c>
+      <c r="E214" t="s">
+        <v>230</v>
+      </c>
+      <c r="F214" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B215" t="s">
+        <v>241</v>
+      </c>
+      <c r="C215" s="1">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>228</v>
+      </c>
+      <c r="E215" t="s">
+        <v>230</v>
+      </c>
+      <c r="F215" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" s="1">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>228</v>
+      </c>
+      <c r="E216" t="s">
+        <v>230</v>
+      </c>
+      <c r="F216" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C217" s="1">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>228</v>
+      </c>
+      <c r="E217" t="s">
+        <v>230</v>
+      </c>
+      <c r="F217" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C218" s="1">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>228</v>
+      </c>
+      <c r="E218" t="s">
+        <v>230</v>
+      </c>
+      <c r="F218" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/playbackLists.xlsx
+++ b/playbackLists.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="246">
   <si>
     <t>stimName</t>
   </si>
@@ -753,13 +753,25 @@
   </si>
   <si>
     <t>light intensity [au]</t>
+  </si>
+  <si>
+    <t>OPTOpulses_NM91_noatr_male</t>
+  </si>
+  <si>
+    <t>OPTOpulses_NM91_noatr_female</t>
+  </si>
+  <si>
+    <t>IPI36_soft&amp;loud_male</t>
+  </si>
+  <si>
+    <t>[1 5]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -798,6 +810,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -827,12 +846,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1118,11 +1139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C212" sqref="C212:C218"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D227" sqref="D227:F227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5312,7 +5333,184 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="4"/>
+      <c r="A219" t="s">
+        <v>173</v>
+      </c>
+      <c r="B219" t="s">
+        <v>217</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D219" t="s">
+        <v>228</v>
+      </c>
+      <c r="E219" t="s">
+        <v>230</v>
+      </c>
+      <c r="F219" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>174</v>
+      </c>
+      <c r="B220" t="s">
+        <v>217</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D220" t="s">
+        <v>228</v>
+      </c>
+      <c r="E220" t="s">
+        <v>230</v>
+      </c>
+      <c r="F220" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>175</v>
+      </c>
+      <c r="B221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D221" t="s">
+        <v>228</v>
+      </c>
+      <c r="E221" t="s">
+        <v>230</v>
+      </c>
+      <c r="F221" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>176</v>
+      </c>
+      <c r="B222" t="s">
+        <v>217</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D222" t="s">
+        <v>228</v>
+      </c>
+      <c r="E222" t="s">
+        <v>230</v>
+      </c>
+      <c r="F222" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>177</v>
+      </c>
+      <c r="B223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D223" t="s">
+        <v>228</v>
+      </c>
+      <c r="E223" t="s">
+        <v>230</v>
+      </c>
+      <c r="F223" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>178</v>
+      </c>
+      <c r="B224" t="s">
+        <v>217</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D224" t="s">
+        <v>228</v>
+      </c>
+      <c r="E224" t="s">
+        <v>230</v>
+      </c>
+      <c r="F224" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C225" s="1">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>228</v>
+      </c>
+      <c r="E225" t="s">
+        <v>230</v>
+      </c>
+      <c r="F225" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C226" s="1">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>228</v>
+      </c>
+      <c r="E226" t="s">
+        <v>230</v>
+      </c>
+      <c r="F226" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A227" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D227" t="s">
+        <v>228</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+      <c r="F227" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
